--- a/Deliverable_2_Documents/FiveGuys_Deliverable_2_Sprint_Backlog.xlsx
+++ b/Deliverable_2_Documents/FiveGuys_Deliverable_2_Sprint_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Desktop\COS 420\Git\FiveGuys_420Project\Deliverable_2_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6944C764-AA31-4C5C-8F6C-44C56359DE99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3BE27-9B5A-4E49-B901-247AE04B2BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Sprint Goal &amp; Number</t>
   </si>
@@ -55,19 +55,25 @@
     <t>Overall: Enable 2 player local mode</t>
   </si>
   <si>
-    <t>Represent 4x4 board and pieces via text to console</t>
-  </si>
-  <si>
-    <t>Enable placing of pieces on 4x4 board via text command</t>
-  </si>
-  <si>
-    <t>Recognize victory conditions of 4 in a row same quality pieces</t>
-  </si>
-  <si>
     <t>7 total</t>
   </si>
   <si>
     <t>User Story ID</t>
+  </si>
+  <si>
+    <t>Create sprites for pieces and board</t>
+  </si>
+  <si>
+    <t>Represent 4x4 board and pieces via Unity</t>
+  </si>
+  <si>
+    <t>Enable placing of pieces on 4x4 board via drag and drop</t>
+  </si>
+  <si>
+    <t>Austin/Spencer</t>
+  </si>
+  <si>
+    <t>Initial protoype and complete and functioning. Game mechanics are coming next.</t>
   </si>
 </sst>
 </file>
@@ -350,8 +356,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -372,7 +378,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -414,7 +420,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -425,31 +431,40 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2">
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2"/>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="2">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
     </row>
@@ -458,14 +473,18 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>

--- a/Deliverable_2_Documents/FiveGuys_Deliverable_2_Sprint_Backlog.xlsx
+++ b/Deliverable_2_Documents/FiveGuys_Deliverable_2_Sprint_Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spencer\Desktop\COS 420\Git\FiveGuys_420Project\Deliverable_2_Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC3BE27-9B5A-4E49-B901-247AE04B2BB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C86D13-7828-435F-B1DF-493F8FA42196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Sprint Goal &amp; Number</t>
   </si>
@@ -61,9 +61,6 @@
     <t>User Story ID</t>
   </si>
   <si>
-    <t>Create sprites for pieces and board</t>
-  </si>
-  <si>
     <t>Represent 4x4 board and pieces via Unity</t>
   </si>
   <si>
@@ -73,7 +70,10 @@
     <t>Austin/Spencer</t>
   </si>
   <si>
-    <t>Initial protoype and complete and functioning. Game mechanics are coming next.</t>
+    <t>Recognize "4-in-a-row" win conditions</t>
+  </si>
+  <si>
+    <t>Initial drag and drop prototype complete and functioning. Game mechanics are coming next.</t>
   </si>
 </sst>
 </file>
@@ -356,7 +356,7 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -422,7 +422,9 @@
       <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2"/>
+      <c r="G2" s="2">
+        <v>5</v>
+      </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -431,18 +433,17 @@
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="2">
-        <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="3" t="s">
         <v>17</v>
       </c>
@@ -453,7 +454,7 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2">
@@ -463,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -473,7 +474,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2">
@@ -483,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>

--- a/Deliverable_2_Documents/FiveGuys_Deliverable_2_Sprint_Backlog.xlsx
+++ b/Deliverable_2_Documents/FiveGuys_Deliverable_2_Sprint_Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinophilius\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C86D13-7828-435F-B1DF-493F8FA42196}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A875C7EA-DBE6-44BF-B5A7-27719CE2E1B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="705" yWindow="930" windowWidth="25695" windowHeight="13470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Sprint Goal &amp; Number</t>
   </si>
@@ -73,7 +73,10 @@
     <t>Recognize "4-in-a-row" win conditions</t>
   </si>
   <si>
-    <t>Initial drag and drop prototype complete and functioning. Game mechanics are coming next.</t>
+    <t>Initial drag and drop mechanics tested. Game mechanics pushed back.</t>
+  </si>
+  <si>
+    <t>Pieces drag, but do not place on board.</t>
   </si>
 </sst>
 </file>
@@ -356,8 +359,8 @@
   </sheetPr>
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -423,7 +426,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
@@ -481,12 +484,14 @@
         <v>3</v>
       </c>
       <c r="G5" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
